--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/metrics/Trial_182__Reeval_Halton_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/metrics/Trial_182__Reeval_Halton_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5941,7 +5941,7 @@
                   <c:v>337.8817138671875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>357.9669494628906</c:v>
+                  <c:v>357.9669189453125</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>358.1775512695312</c:v>
@@ -5980,13 +5980,13 @@
                   <c:v>356.1210327148438</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>356.2410888671875</c:v>
+                  <c:v>356.2411193847656</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>361.1818237304688</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>355.3690185546875</c:v>
+                  <c:v>355.3689880371094</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>353.284912109375</c:v>
@@ -6001,13 +6001,13 @@
                   <c:v>355.2127990722656</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>357.5750122070312</c:v>
+                  <c:v>357.5749816894531</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>356.9195556640625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>341.01904296875</c:v>
+                  <c:v>341.0190124511719</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>347.2082824707031</c:v>
@@ -6019,7 +6019,7 @@
                   <c:v>342.9678039550781</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>342.4327087402344</c:v>
+                  <c:v>342.4326782226562</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>353.1600952148438</c:v>
@@ -6037,7 +6037,7 @@
                   <c:v>376.8467712402344</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>355.5974426269531</c:v>
+                  <c:v>355.597412109375</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>334.1096496582031</c:v>
@@ -6064,7 +6064,7 @@
                   <c:v>344.0547180175781</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>351.4905090332031</c:v>
+                  <c:v>351.4905395507812</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>353.0901794433594</c:v>
@@ -6091,7 +6091,7 @@
                   <c:v>360.8007202148438</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>353.8365783691406</c:v>
+                  <c:v>353.8366088867188</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>347.6775512695312</c:v>
@@ -6127,10 +6127,10 @@
                   <c:v>359.611328125</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>361.0265808105469</c:v>
+                  <c:v>361.026611328125</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>354.1099243164062</c:v>
+                  <c:v>354.1099548339844</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>358.6377258300781</c:v>
@@ -6172,7 +6172,7 @@
                   <c:v>341.5674438476562</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>353.1570129394531</c:v>
+                  <c:v>353.1570434570312</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>357.5258483886719</c:v>
@@ -6181,7 +6181,7 @@
                   <c:v>357.049560546875</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>348.3045654296875</c:v>
+                  <c:v>348.3045959472656</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>348.6700439453125</c:v>
@@ -6215,7 +6215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6230,7 +6230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6259,7 +6259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6274,7 +6274,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6303,7 +6303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6318,7 +6318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6830,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H787"/>
+  <dimension ref="A1:S787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6861,8 +6861,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>342.196</v>
       </c>
@@ -6887,8 +6893,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.506</v>
       </c>
@@ -6913,8 +6925,14 @@
       <c r="H3">
         <v>377</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>377</v>
+      </c>
+      <c r="S3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>355.709</v>
       </c>
@@ -6934,13 +6952,19 @@
         <v>345.3075561523438</v>
       </c>
       <c r="G4">
+        <v>377</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>377</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>361.128</v>
       </c>
@@ -6965,8 +6989,14 @@
       <c r="H5">
         <v>377</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>377</v>
+      </c>
+      <c r="S5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.345</v>
       </c>
@@ -6986,13 +7016,19 @@
         <v>358.6028442382812</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>377</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>331.376</v>
       </c>
@@ -7017,8 +7053,14 @@
       <c r="H7">
         <v>377</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>377</v>
+      </c>
+      <c r="S7">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>317.294</v>
       </c>
@@ -7038,7 +7080,7 @@
         <v>352.5311279296875</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>354.275</v>
       </c>
@@ -7058,7 +7100,7 @@
         <v>354.3122253417969</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>339.738</v>
       </c>
@@ -7078,7 +7120,7 @@
         <v>358.0322875976562</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>355.403</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>332.8843688964844</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>357.053</v>
       </c>
@@ -7118,7 +7160,7 @@
         <v>354.6405639648438</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>351.338</v>
       </c>
@@ -7138,7 +7180,7 @@
         <v>354.7348022460938</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>355.857</v>
       </c>
@@ -7158,7 +7200,7 @@
         <v>339.5062561035156</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>358.131</v>
       </c>
@@ -7178,7 +7220,7 @@
         <v>357.613037109375</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>357.205</v>
       </c>
@@ -7235,7 +7277,7 @@
         <v>358.182</v>
       </c>
       <c r="F18">
-        <v>357.9669494628906</v>
+        <v>357.9669189453125</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7495,7 +7537,7 @@
         <v>357.218</v>
       </c>
       <c r="F31">
-        <v>356.2410888671875</v>
+        <v>356.2411193847656</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7535,7 +7577,7 @@
         <v>355.501</v>
       </c>
       <c r="F33">
-        <v>355.3690185546875</v>
+        <v>355.3689880371094</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7635,7 +7677,7 @@
         <v>358.047</v>
       </c>
       <c r="F38">
-        <v>357.5750122070312</v>
+        <v>357.5749816894531</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7675,7 +7717,7 @@
         <v>344.724</v>
       </c>
       <c r="F40">
-        <v>341.01904296875</v>
+        <v>341.0190124511719</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7755,7 +7797,7 @@
         <v>360.289</v>
       </c>
       <c r="F44">
-        <v>342.4327087402344</v>
+        <v>342.4326782226562</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7875,7 +7917,7 @@
         <v>356.541</v>
       </c>
       <c r="F50">
-        <v>355.5974426269531</v>
+        <v>355.597412109375</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8055,7 +8097,7 @@
         <v>337.604</v>
       </c>
       <c r="F59">
-        <v>351.4905090332031</v>
+        <v>351.4905395507812</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8235,7 +8277,7 @@
         <v>355.562</v>
       </c>
       <c r="F68">
-        <v>353.8365783691406</v>
+        <v>353.8366088867188</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8475,7 +8517,7 @@
         <v>341.018</v>
       </c>
       <c r="F80">
-        <v>361.0265808105469</v>
+        <v>361.026611328125</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8495,7 +8537,7 @@
         <v>357.47</v>
       </c>
       <c r="F81">
-        <v>354.1099243164062</v>
+        <v>354.1099548339844</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8775,7 +8817,7 @@
         <v>361.715</v>
       </c>
       <c r="F95">
-        <v>353.1570129394531</v>
+        <v>353.1570434570312</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8835,7 +8877,7 @@
         <v>360.004</v>
       </c>
       <c r="F98">
-        <v>348.3045654296875</v>
+        <v>348.3045959472656</v>
       </c>
     </row>
     <row r="99" spans="1:6">
